--- a/renuka/check.xlsx
+++ b/renuka/check.xlsx
@@ -427,11 +427,7 @@
           <t>name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>prajeeth</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -439,11 +435,7 @@
           <t>mobile</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9445818366</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,11 +443,7 @@
           <t>dress_type</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>gtrd</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr"/>
@@ -590,11 +578,7 @@
           <t>pyjama_hip</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>45667</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
